--- a/image/device.xlsx
+++ b/image/device.xlsx
@@ -1220,44 +1220,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.56640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.51953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="127.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="127.88671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="40.5546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.90625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="41.02734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="58.1796875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="58.85546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.87109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/image/device.xlsx
+++ b/image/device.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="337">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -400,10 +400,6 @@
   </si>
   <si>
     <t>Device.udiCarrier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -751,10 +747,10 @@
 </t>
   </si>
   <si>
-    <t>The name of the device</t>
-  </si>
-  <si>
-    <t>The name of the device.</t>
+    <t>The name that identifies the device</t>
+  </si>
+  <si>
+    <t>The name that identifies the device.</t>
   </si>
   <si>
     <t>Device.deviceName.type</t>
@@ -779,10 +775,10 @@
     <t>Device.modelNumber</t>
   </si>
   <si>
-    <t>The model number for the device</t>
-  </si>
-  <si>
-    <t>The model number for the device.</t>
+    <t>The manufacturer's model number for the device</t>
+  </si>
+  <si>
+    <t>The manufacturer's model number for the device.</t>
   </si>
   <si>
     <t>.softwareName (included as part)</t>
@@ -791,10 +787,10 @@
     <t>Device.partNumber</t>
   </si>
   <si>
-    <t>The part number of the device</t>
-  </si>
-  <si>
-    <t>The part number of the device.</t>
+    <t>The part number or catalog number of the device</t>
+  </si>
+  <si>
+    <t>The part number or catalog number of the device.</t>
   </si>
   <si>
     <t>Device.type</t>
@@ -872,10 +868,10 @@
     <t>Device.version.type</t>
   </si>
   <si>
-    <t>The type of the device version</t>
-  </si>
-  <si>
-    <t>The type of the device version.</t>
+    <t>The type of the device version, e.g. manufacturer, approved, internal</t>
+  </si>
+  <si>
+    <t>The type of the device version, e.g. manufacturer, approved, internal.</t>
   </si>
   <si>
     <t>Device.version.component</t>
@@ -1074,10 +1070,10 @@
 </t>
   </si>
   <si>
-    <t>The parent device</t>
-  </si>
-  <si>
-    <t>The parent device.</t>
+    <t>The device that this device is attached to or is part of</t>
+  </si>
+  <si>
+    <t>The device that this device is attached to or is part of.</t>
   </si>
 </sst>
 </file>
@@ -1220,44 +1216,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.51953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.56640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="127.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="127.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="41.02734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="40.5546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.90625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="58.85546875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.87109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="58.1796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2733,13 +2729,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2790,22 +2786,22 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -2819,7 +2815,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2848,7 +2844,7 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>96</v>
@@ -2901,7 +2897,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2916,7 +2912,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -2930,11 +2926,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2956,10 +2952,10 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>96</v>
@@ -3014,7 +3010,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3043,11 +3039,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3066,13 +3062,13 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3123,7 +3119,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3138,25 +3134,25 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3178,10 +3174,10 @@
         <v>61</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3232,7 +3228,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3247,21 +3243,21 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3287,14 +3283,14 @@
         <v>61</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3343,7 +3339,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3358,7 +3354,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3372,11 +3368,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3395,16 +3391,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3454,7 +3450,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3469,7 +3465,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -3478,16 +3474,16 @@
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3506,16 +3502,16 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3565,7 +3561,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3580,7 +3576,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -3589,12 +3585,12 @@
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3620,14 +3616,14 @@
         <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3652,46 +3648,46 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3705,7 +3701,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3731,13 +3727,13 @@
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3763,52 +3759,52 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -3816,7 +3812,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3839,13 +3835,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3872,14 +3868,14 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3917,7 +3913,7 @@
         <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3925,11 +3921,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3948,16 +3944,16 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4007,7 +4003,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4022,21 +4018,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4059,13 +4055,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4116,7 +4112,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4131,13 +4127,13 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>90</v>
@@ -4145,7 +4141,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4168,13 +4164,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4225,7 +4221,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4240,21 +4236,21 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4277,13 +4273,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4334,7 +4330,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4349,21 +4345,21 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4386,13 +4382,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4443,7 +4439,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4458,21 +4454,21 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4495,16 +4491,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4554,7 +4550,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4569,13 +4565,13 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4583,7 +4579,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4609,10 +4605,10 @@
         <v>117</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4663,7 +4659,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4681,7 +4677,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4692,7 +4688,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4715,13 +4711,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4772,22 +4768,22 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -4801,7 +4797,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4830,7 +4826,7 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>96</v>
@@ -4883,7 +4879,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4898,7 +4894,7 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -4912,11 +4908,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4938,10 +4934,10 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>96</v>
@@ -4996,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5025,11 +5021,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5048,13 +5044,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5105,7 +5101,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>48</v>
@@ -5134,7 +5130,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5160,10 +5156,10 @@
         <v>67</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5190,52 +5186,52 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5243,7 +5239,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5266,13 +5262,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5323,7 +5319,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5338,13 +5334,13 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5352,7 +5348,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5375,16 +5371,16 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5434,7 +5430,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5449,13 +5445,13 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5463,7 +5459,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5486,13 +5482,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5519,14 +5515,14 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5543,7 +5539,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5572,7 +5568,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5598,10 +5594,10 @@
         <v>117</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5652,7 +5648,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5681,7 +5677,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5704,13 +5700,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5761,22 +5757,22 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
@@ -5790,7 +5786,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5819,7 +5815,7 @@
         <v>94</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>96</v>
@@ -5872,7 +5868,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5887,7 +5883,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -5901,11 +5897,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5927,10 +5923,10 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>96</v>
@@ -5985,7 +5981,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6014,11 +6010,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6037,13 +6033,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6094,7 +6090,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>48</v>
@@ -6123,7 +6119,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6146,13 +6142,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6203,7 +6199,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6224,7 +6220,7 @@
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6232,7 +6228,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6258,10 +6254,10 @@
         <v>117</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6312,7 +6308,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6341,7 +6337,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6364,13 +6360,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6421,22 +6417,22 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -6450,7 +6446,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6479,7 +6475,7 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>96</v>
@@ -6532,7 +6528,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6547,7 +6543,7 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
@@ -6561,11 +6557,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6587,10 +6583,10 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>96</v>
@@ -6645,7 +6641,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6674,11 +6670,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6697,13 +6693,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6754,7 +6750,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6783,7 +6779,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6809,10 +6805,10 @@
         <v>104</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6863,7 +6859,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6884,7 +6880,7 @@
         <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -6892,7 +6888,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6915,13 +6911,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6972,7 +6968,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>48</v>
@@ -7001,7 +6997,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7027,10 +7023,10 @@
         <v>117</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7081,7 +7077,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7110,7 +7106,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7133,13 +7129,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7190,22 +7186,22 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -7219,7 +7215,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7248,7 +7244,7 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>96</v>
@@ -7301,7 +7297,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7316,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -7330,11 +7326,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7356,10 +7352,10 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>96</v>
@@ -7414,7 +7410,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7443,7 +7439,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7466,13 +7462,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7523,7 +7519,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7552,7 +7548,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7575,13 +7571,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7632,7 +7628,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7661,7 +7657,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7684,13 +7680,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7741,7 +7737,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7770,7 +7766,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7793,17 +7789,17 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7852,7 +7848,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7867,13 +7863,13 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -7881,7 +7877,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7904,13 +7900,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7961,7 +7957,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7976,13 +7972,13 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -7990,7 +7986,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8013,16 +8009,16 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8072,7 +8068,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8087,13 +8083,13 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8101,7 +8097,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8124,17 +8120,17 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8183,7 +8179,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8198,13 +8194,13 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8212,7 +8208,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8238,13 +8234,13 @@
         <v>61</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8294,7 +8290,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8309,13 +8305,13 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8323,7 +8319,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8346,13 +8342,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8403,7 +8399,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8418,7 +8414,7 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
@@ -8432,7 +8428,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8455,13 +8451,13 @@
         <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8512,7 +8508,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8527,7 +8523,7 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
@@ -8541,7 +8537,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8564,13 +8560,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8621,7 +8617,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
